--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ntn1-Neo1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ntn1-Neo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Ntn1</t>
+  </si>
+  <si>
+    <t>Neo1</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ntn1</t>
-  </si>
-  <si>
-    <t>Neo1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8475943333333333</v>
+        <v>1.528935333333333</v>
       </c>
       <c r="H2">
-        <v>2.542783</v>
+        <v>4.586806</v>
       </c>
       <c r="I2">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346326</v>
       </c>
       <c r="J2">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346324</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.958978666666666</v>
+        <v>4.849431333333333</v>
       </c>
       <c r="N2">
-        <v>5.876935999999999</v>
+        <v>14.548294</v>
       </c>
       <c r="O2">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="P2">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="Q2">
-        <v>1.660419216987555</v>
+        <v>7.41446691210711</v>
       </c>
       <c r="R2">
-        <v>14.943772952888</v>
+        <v>66.730202208964</v>
       </c>
       <c r="S2">
-        <v>0.002400394050679802</v>
+        <v>0.01159575636522635</v>
       </c>
       <c r="T2">
-        <v>0.002400394050679802</v>
+        <v>0.01159575636522635</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8475943333333333</v>
+        <v>1.528935333333333</v>
       </c>
       <c r="H3">
-        <v>2.542783</v>
+        <v>4.586806</v>
       </c>
       <c r="I3">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346326</v>
       </c>
       <c r="J3">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346324</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>80.554554</v>
       </c>
       <c r="O3">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="P3">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="Q3">
-        <v>22.759194498198</v>
+        <v>41.054234623836</v>
       </c>
       <c r="R3">
-        <v>204.832750483782</v>
+        <v>369.488111614524</v>
       </c>
       <c r="S3">
-        <v>0.03290195302054759</v>
+        <v>0.06420622117572479</v>
       </c>
       <c r="T3">
-        <v>0.0329019530205476</v>
+        <v>0.06420622117572478</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8475943333333333</v>
+        <v>1.528935333333333</v>
       </c>
       <c r="H4">
-        <v>2.542783</v>
+        <v>4.586806</v>
       </c>
       <c r="I4">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346326</v>
       </c>
       <c r="J4">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346324</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1288926666666667</v>
+        <v>0.02932566666666667</v>
       </c>
       <c r="N4">
-        <v>0.386678</v>
+        <v>0.087977</v>
       </c>
       <c r="O4">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="P4">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="Q4">
-        <v>0.1092486938748889</v>
+        <v>0.04483704794022222</v>
       </c>
       <c r="R4">
-        <v>0.983238244874</v>
+        <v>0.403533431462</v>
       </c>
       <c r="S4">
-        <v>0.0001579359670972705</v>
+        <v>7.012230147009119E-05</v>
       </c>
       <c r="T4">
-        <v>0.0001579359670972705</v>
+        <v>7.012230147009118E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8475943333333333</v>
+        <v>1.528935333333333</v>
       </c>
       <c r="H5">
-        <v>2.542783</v>
+        <v>4.586806</v>
       </c>
       <c r="I5">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346326</v>
       </c>
       <c r="J5">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346324</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.64397933333333</v>
+        <v>7.899262</v>
       </c>
       <c r="N5">
-        <v>46.931938</v>
+        <v>23.697786</v>
       </c>
       <c r="O5">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="P5">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="Q5">
-        <v>13.25974823371711</v>
+        <v>12.07746077905733</v>
       </c>
       <c r="R5">
-        <v>119.337734103454</v>
+        <v>108.697147011516</v>
       </c>
       <c r="S5">
-        <v>0.01916902698312069</v>
+        <v>0.0188883832600078</v>
       </c>
       <c r="T5">
-        <v>0.01916902698312069</v>
+        <v>0.0188883832600078</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,14 +776,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8475943333333333</v>
+        <v>1.528935333333333</v>
       </c>
       <c r="H6">
-        <v>2.542783</v>
+        <v>4.586806</v>
       </c>
       <c r="I6">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346326</v>
       </c>
       <c r="J6">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346324</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6170946666666667</v>
+        <v>0.3983913333333334</v>
       </c>
       <c r="N6">
-        <v>1.851284</v>
+        <v>1.195174</v>
       </c>
       <c r="O6">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677334</v>
       </c>
       <c r="P6">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677335</v>
       </c>
       <c r="Q6">
-        <v>0.5230459425968889</v>
+        <v>0.6091145860271112</v>
       </c>
       <c r="R6">
-        <v>4.707413483372</v>
+        <v>5.482031274244001</v>
       </c>
       <c r="S6">
-        <v>0.0007561442050277062</v>
+        <v>0.0009526166104460798</v>
       </c>
       <c r="T6">
-        <v>0.0007561442050277063</v>
+        <v>0.0009526166104460798</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8475943333333333</v>
+        <v>1.528935333333333</v>
       </c>
       <c r="H7">
-        <v>2.542783</v>
+        <v>4.586806</v>
       </c>
       <c r="I7">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346326</v>
       </c>
       <c r="J7">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346324</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4473283333333333</v>
+        <v>0.403311</v>
       </c>
       <c r="N7">
-        <v>1.341985</v>
+        <v>1.209933</v>
       </c>
       <c r="O7">
-        <v>0.009799561315032582</v>
+        <v>0.009975232188034667</v>
       </c>
       <c r="P7">
-        <v>0.00979956131503258</v>
+        <v>0.009975232188034668</v>
       </c>
       <c r="Q7">
-        <v>0.3791529604727777</v>
+        <v>0.616636438222</v>
       </c>
       <c r="R7">
-        <v>3.412376644254999</v>
+        <v>5.549727943998</v>
       </c>
       <c r="S7">
-        <v>0.000548124534638719</v>
+        <v>0.0009643803105881291</v>
       </c>
       <c r="T7">
-        <v>0.0005481245346387189</v>
+        <v>0.0009643803105881291</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>32.140514</v>
       </c>
       <c r="I8">
-        <v>0.7069946476917676</v>
+        <v>0.6774352131262671</v>
       </c>
       <c r="J8">
-        <v>0.7069946476917677</v>
+        <v>0.677435213126267</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.958978666666666</v>
+        <v>4.849431333333333</v>
       </c>
       <c r="N8">
-        <v>5.876935999999999</v>
+        <v>14.548294</v>
       </c>
       <c r="O8">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="P8">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="Q8">
-        <v>20.98752708723377</v>
+        <v>51.95440522034621</v>
       </c>
       <c r="R8">
-        <v>188.887743785104</v>
+        <v>467.5896469831159</v>
       </c>
       <c r="S8">
-        <v>0.03034073241459884</v>
+        <v>0.08125339719995713</v>
       </c>
       <c r="T8">
-        <v>0.03034073241459885</v>
+        <v>0.08125339719995714</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>32.140514</v>
       </c>
       <c r="I9">
-        <v>0.7069946476917676</v>
+        <v>0.6774352131262671</v>
       </c>
       <c r="J9">
-        <v>0.7069946476917677</v>
+        <v>0.677435213126267</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>80.554554</v>
       </c>
       <c r="O9">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="P9">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="Q9">
         <v>287.673863400084</v>
@@ -1013,10 +1013,10 @@
         <v>2589.064770600756</v>
       </c>
       <c r="S9">
-        <v>0.4158772815785902</v>
+        <v>0.4499036912800495</v>
       </c>
       <c r="T9">
-        <v>0.4158772815785902</v>
+        <v>0.4499036912800494</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,40 +1045,40 @@
         <v>32.140514</v>
       </c>
       <c r="I10">
-        <v>0.7069946476917676</v>
+        <v>0.6774352131262671</v>
       </c>
       <c r="J10">
-        <v>0.7069946476917677</v>
+        <v>0.677435213126267</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1288926666666667</v>
+        <v>0.02932566666666667</v>
       </c>
       <c r="N10">
-        <v>0.386678</v>
+        <v>0.087977</v>
       </c>
       <c r="O10">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="P10">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="Q10">
-        <v>1.380892185832445</v>
+        <v>0.3141806666864444</v>
       </c>
       <c r="R10">
-        <v>12.428029672492</v>
+        <v>2.827626000178</v>
       </c>
       <c r="S10">
-        <v>0.001996294281341886</v>
+        <v>0.0004913586517746088</v>
       </c>
       <c r="T10">
-        <v>0.001996294281341886</v>
+        <v>0.0004913586517746087</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>32.140514</v>
       </c>
       <c r="I11">
-        <v>0.7069946476917676</v>
+        <v>0.6774352131262671</v>
       </c>
       <c r="J11">
-        <v>0.7069946476917677</v>
+        <v>0.677435213126267</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.64397933333333</v>
+        <v>7.899262</v>
       </c>
       <c r="N11">
-        <v>46.931938</v>
+        <v>23.697786</v>
       </c>
       <c r="O11">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="P11">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="Q11">
-        <v>167.6018455929036</v>
+        <v>84.62878030022266</v>
       </c>
       <c r="R11">
-        <v>1508.416610336132</v>
+        <v>761.6590227020039</v>
       </c>
       <c r="S11">
-        <v>0.2422945175098969</v>
+        <v>0.132354049115146</v>
       </c>
       <c r="T11">
-        <v>0.242294517509897</v>
+        <v>0.132354049115146</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>32.140514</v>
       </c>
       <c r="I12">
-        <v>0.7069946476917676</v>
+        <v>0.6774352131262671</v>
       </c>
       <c r="J12">
-        <v>0.7069946476917677</v>
+        <v>0.677435213126267</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6170946666666667</v>
+        <v>0.3983913333333334</v>
       </c>
       <c r="N12">
-        <v>1.851284</v>
+        <v>1.195174</v>
       </c>
       <c r="O12">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677334</v>
       </c>
       <c r="P12">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677335</v>
       </c>
       <c r="Q12">
-        <v>6.611246591108445</v>
+        <v>4.268167408826222</v>
       </c>
       <c r="R12">
-        <v>59.50121931997601</v>
+        <v>38.413506679436</v>
       </c>
       <c r="S12">
-        <v>0.009557584507884418</v>
+        <v>0.006675143336054495</v>
       </c>
       <c r="T12">
-        <v>0.009557584507884419</v>
+        <v>0.006675143336054495</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>32.140514</v>
       </c>
       <c r="I13">
-        <v>0.7069946476917676</v>
+        <v>0.6774352131262671</v>
       </c>
       <c r="J13">
-        <v>0.7069946476917677</v>
+        <v>0.677435213126267</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4473283333333333</v>
+        <v>0.403311</v>
       </c>
       <c r="N13">
-        <v>1.341985</v>
+        <v>1.209933</v>
       </c>
       <c r="O13">
-        <v>0.009799561315032582</v>
+        <v>0.009975232188034667</v>
       </c>
       <c r="P13">
-        <v>0.00979956131503258</v>
+        <v>0.009975232188034668</v>
       </c>
       <c r="Q13">
-        <v>4.792454186698889</v>
+        <v>4.320874280617999</v>
       </c>
       <c r="R13">
-        <v>43.13208768029</v>
+        <v>38.88786852556199</v>
       </c>
       <c r="S13">
-        <v>0.006928237399455335</v>
+        <v>0.006757573543285264</v>
       </c>
       <c r="T13">
-        <v>0.006928237399455335</v>
+        <v>0.006757573543285264</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.06359233333333333</v>
+        <v>0.2135196666666667</v>
       </c>
       <c r="H14">
-        <v>0.190777</v>
+        <v>0.6405590000000001</v>
       </c>
       <c r="I14">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="J14">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.958978666666666</v>
+        <v>4.849431333333333</v>
       </c>
       <c r="N14">
-        <v>5.876935999999999</v>
+        <v>14.548294</v>
       </c>
       <c r="O14">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="P14">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="Q14">
-        <v>0.1245760243635555</v>
+        <v>1.035448961816222</v>
       </c>
       <c r="R14">
-        <v>1.121184219272</v>
+        <v>9.319040656346001</v>
       </c>
       <c r="S14">
-        <v>0.0001800940055862182</v>
+        <v>0.001619376555614741</v>
       </c>
       <c r="T14">
-        <v>0.0001800940055862182</v>
+        <v>0.001619376555614741</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.06359233333333333</v>
+        <v>0.2135196666666667</v>
       </c>
       <c r="H15">
-        <v>0.190777</v>
+        <v>0.6405590000000001</v>
       </c>
       <c r="I15">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="J15">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>80.554554</v>
       </c>
       <c r="O15">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="P15">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="Q15">
-        <v>1.707550683162</v>
+        <v>5.733327172854001</v>
       </c>
       <c r="R15">
-        <v>15.367956148458</v>
+        <v>51.59994455568601</v>
       </c>
       <c r="S15">
-        <v>0.002468529910496101</v>
+        <v>0.00896656035378455</v>
       </c>
       <c r="T15">
-        <v>0.002468529910496101</v>
+        <v>0.008966560353784549</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.2135196666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.6405590000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.01350125336156567</v>
+      </c>
+      <c r="J16">
+        <v>0.01350125336156567</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G16">
-        <v>0.06359233333333333</v>
-      </c>
-      <c r="H16">
-        <v>0.190777</v>
-      </c>
-      <c r="I16">
-        <v>0.00419652025175118</v>
-      </c>
-      <c r="J16">
-        <v>0.00419652025175118</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M16">
-        <v>0.1288926666666667</v>
+        <v>0.02932566666666667</v>
       </c>
       <c r="N16">
-        <v>0.386678</v>
+        <v>0.087977</v>
       </c>
       <c r="O16">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="P16">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="Q16">
-        <v>0.00819658542288889</v>
+        <v>0.006261606571444445</v>
       </c>
       <c r="R16">
-        <v>0.073769268806</v>
+        <v>0.05635445914300001</v>
       </c>
       <c r="S16">
-        <v>1.184943819229403E-05</v>
+        <v>9.792755853938481E-06</v>
       </c>
       <c r="T16">
-        <v>1.184943819229403E-05</v>
+        <v>9.792755853938479E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.06359233333333333</v>
+        <v>0.2135196666666667</v>
       </c>
       <c r="H17">
-        <v>0.190777</v>
+        <v>0.6405590000000001</v>
       </c>
       <c r="I17">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="J17">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.64397933333333</v>
+        <v>7.899262</v>
       </c>
       <c r="N17">
-        <v>46.931938</v>
+        <v>23.697786</v>
       </c>
       <c r="O17">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="P17">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="Q17">
-        <v>0.9948371484251112</v>
+        <v>1.686647789152667</v>
       </c>
       <c r="R17">
-        <v>8.953534335826001</v>
+        <v>15.179830102374</v>
       </c>
       <c r="S17">
-        <v>0.001438191721731196</v>
+        <v>0.002637810252416897</v>
       </c>
       <c r="T17">
-        <v>0.001438191721731196</v>
+        <v>0.002637810252416897</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.06359233333333333</v>
+        <v>0.2135196666666667</v>
       </c>
       <c r="H18">
-        <v>0.190777</v>
+        <v>0.6405590000000001</v>
       </c>
       <c r="I18">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="J18">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.6170946666666667</v>
+        <v>0.3983913333333334</v>
       </c>
       <c r="N18">
-        <v>1.851284</v>
+        <v>1.195174</v>
       </c>
       <c r="O18">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677334</v>
       </c>
       <c r="P18">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677335</v>
       </c>
       <c r="Q18">
-        <v>0.03924248974088889</v>
+        <v>0.08506438469622224</v>
       </c>
       <c r="R18">
-        <v>0.353182407668</v>
+        <v>0.7655794622660003</v>
       </c>
       <c r="S18">
-        <v>5.67311182285593E-05</v>
+        <v>0.0001330353067844445</v>
       </c>
       <c r="T18">
-        <v>5.67311182285593E-05</v>
+        <v>0.0001330353067844445</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.06359233333333333</v>
+        <v>0.2135196666666667</v>
       </c>
       <c r="H19">
-        <v>0.190777</v>
+        <v>0.6405590000000001</v>
       </c>
       <c r="I19">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="J19">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.4473283333333333</v>
+        <v>0.403311</v>
       </c>
       <c r="N19">
-        <v>1.341985</v>
+        <v>1.209933</v>
       </c>
       <c r="O19">
-        <v>0.009799561315032582</v>
+        <v>0.009975232188034667</v>
       </c>
       <c r="P19">
-        <v>0.00979956131503258</v>
+        <v>0.009975232188034668</v>
       </c>
       <c r="Q19">
-        <v>0.02844665248277778</v>
+        <v>0.086114830283</v>
       </c>
       <c r="R19">
-        <v>0.256019872345</v>
+        <v>0.7750334725470001</v>
       </c>
       <c r="S19">
-        <v>4.112405751681165E-05</v>
+        <v>0.0001346781371111011</v>
       </c>
       <c r="T19">
-        <v>4.112405751681165E-05</v>
+        <v>0.0001346781371111012</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.417961</v>
+        <v>2.830364666666667</v>
       </c>
       <c r="H20">
-        <v>10.253883</v>
+        <v>8.491094</v>
       </c>
       <c r="I20">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="J20">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.958978666666666</v>
+        <v>4.849431333333333</v>
       </c>
       <c r="N20">
-        <v>5.876935999999999</v>
+        <v>14.548294</v>
       </c>
       <c r="O20">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="P20">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="Q20">
-        <v>6.695712682498664</v>
+        <v>13.72565909929289</v>
       </c>
       <c r="R20">
-        <v>60.26141414248798</v>
+        <v>123.530931893636</v>
       </c>
       <c r="S20">
-        <v>0.009679693371226233</v>
+        <v>0.02146606097973956</v>
       </c>
       <c r="T20">
-        <v>0.009679693371226233</v>
+        <v>0.02146606097973956</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.417961</v>
+        <v>2.830364666666667</v>
       </c>
       <c r="H21">
-        <v>10.253883</v>
+        <v>8.491094</v>
       </c>
       <c r="I21">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="J21">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>80.554554</v>
       </c>
       <c r="O21">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="P21">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="Q21">
-        <v>91.77744131479798</v>
+        <v>75.99958779356399</v>
       </c>
       <c r="R21">
-        <v>825.9969718331819</v>
+        <v>683.996290142076</v>
       </c>
       <c r="S21">
-        <v>0.1326785560325799</v>
+        <v>0.1188585389022055</v>
       </c>
       <c r="T21">
-        <v>0.1326785560325799</v>
+        <v>0.1188585389022055</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.417961</v>
+        <v>2.830364666666667</v>
       </c>
       <c r="H22">
-        <v>10.253883</v>
+        <v>8.491094</v>
       </c>
       <c r="I22">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="J22">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.1288926666666667</v>
+        <v>0.02932566666666667</v>
       </c>
       <c r="N22">
-        <v>0.386678</v>
+        <v>0.087977</v>
       </c>
       <c r="O22">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="P22">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="Q22">
-        <v>0.4405501078526667</v>
+        <v>0.08300233075977778</v>
       </c>
       <c r="R22">
-        <v>3.964950970673999</v>
+        <v>0.7470209768380001</v>
       </c>
       <c r="S22">
-        <v>0.0006368836538970339</v>
+        <v>0.0001298103851086971</v>
       </c>
       <c r="T22">
-        <v>0.0006368836538970338</v>
+        <v>0.0001298103851086971</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.417961</v>
+        <v>2.830364666666667</v>
       </c>
       <c r="H23">
-        <v>10.253883</v>
+        <v>8.491094</v>
       </c>
       <c r="I23">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="J23">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>15.64397933333333</v>
+        <v>7.899262</v>
       </c>
       <c r="N23">
-        <v>46.931938</v>
+        <v>23.697786</v>
       </c>
       <c r="O23">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="P23">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="Q23">
-        <v>53.47051124613933</v>
+        <v>22.35779205754267</v>
       </c>
       <c r="R23">
-        <v>481.2346012152539</v>
+        <v>201.220128517884</v>
       </c>
       <c r="S23">
-        <v>0.07729993472064367</v>
+        <v>0.03496616987262002</v>
       </c>
       <c r="T23">
-        <v>0.07729993472064367</v>
+        <v>0.03496616987262001</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,14 +1892,14 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.417961</v>
+        <v>2.830364666666667</v>
       </c>
       <c r="H24">
-        <v>10.253883</v>
+        <v>8.491094</v>
       </c>
       <c r="I24">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="J24">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.6170946666666667</v>
+        <v>0.3983913333333334</v>
       </c>
       <c r="N24">
-        <v>1.851284</v>
+        <v>1.195174</v>
       </c>
       <c r="O24">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677334</v>
       </c>
       <c r="P24">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677335</v>
       </c>
       <c r="Q24">
-        <v>2.109205503974667</v>
+        <v>1.127592753372889</v>
       </c>
       <c r="R24">
-        <v>18.982849535772</v>
+        <v>10.148334780356</v>
       </c>
       <c r="S24">
-        <v>0.003049184381633081</v>
+        <v>0.001763483606077747</v>
       </c>
       <c r="T24">
-        <v>0.003049184381633081</v>
+        <v>0.001763483606077747</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.417961</v>
+        <v>2.830364666666667</v>
       </c>
       <c r="H25">
-        <v>10.253883</v>
+        <v>8.491094</v>
       </c>
       <c r="I25">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="J25">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4473283333333333</v>
+        <v>0.403311</v>
       </c>
       <c r="N25">
-        <v>1.341985</v>
+        <v>1.209933</v>
       </c>
       <c r="O25">
-        <v>0.009799561315032582</v>
+        <v>0.009975232188034667</v>
       </c>
       <c r="P25">
-        <v>0.00979956131503258</v>
+        <v>0.009975232188034668</v>
       </c>
       <c r="Q25">
-        <v>1.528950797528333</v>
+        <v>1.141517204078</v>
       </c>
       <c r="R25">
-        <v>13.760557177755</v>
+        <v>10.273654836702</v>
       </c>
       <c r="S25">
-        <v>0.002210336016724538</v>
+        <v>0.001785260564530743</v>
       </c>
       <c r="T25">
-        <v>0.002210336016724538</v>
+        <v>0.001785260564530743</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.06890399999999999</v>
+        <v>0.528479</v>
       </c>
       <c r="H26">
-        <v>0.206712</v>
+        <v>1.585437</v>
       </c>
       <c r="I26">
-        <v>0.004547042328372864</v>
+        <v>0.03341672917842166</v>
       </c>
       <c r="J26">
-        <v>0.004547042328372865</v>
+        <v>0.03341672917842165</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.958978666666666</v>
+        <v>4.849431333333333</v>
       </c>
       <c r="N26">
-        <v>5.876935999999999</v>
+        <v>14.548294</v>
       </c>
       <c r="O26">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="P26">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="Q26">
-        <v>0.134981466048</v>
+        <v>2.562822621608666</v>
       </c>
       <c r="R26">
-        <v>1.214833194432</v>
+        <v>23.065403594478</v>
       </c>
       <c r="S26">
-        <v>0.0001951366888185595</v>
+        <v>0.004008092163569894</v>
       </c>
       <c r="T26">
-        <v>0.0001951366888185595</v>
+        <v>0.004008092163569894</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.06890399999999999</v>
+        <v>0.528479</v>
       </c>
       <c r="H27">
-        <v>0.206712</v>
+        <v>1.585437</v>
       </c>
       <c r="I27">
-        <v>0.004547042328372864</v>
+        <v>0.03341672917842166</v>
       </c>
       <c r="J27">
-        <v>0.004547042328372865</v>
+        <v>0.03341672917842165</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>80.554554</v>
       </c>
       <c r="O27">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="P27">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="Q27">
-        <v>1.850176996272</v>
+        <v>14.190463381122</v>
       </c>
       <c r="R27">
-        <v>16.651592966448</v>
+        <v>127.714170430098</v>
       </c>
       <c r="S27">
-        <v>0.002674718413951734</v>
+        <v>0.02219298541995838</v>
       </c>
       <c r="T27">
-        <v>0.002674718413951735</v>
+        <v>0.02219298541995837</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.528479</v>
+      </c>
+      <c r="H28">
+        <v>1.585437</v>
+      </c>
+      <c r="I28">
+        <v>0.03341672917842166</v>
+      </c>
+      <c r="J28">
+        <v>0.03341672917842165</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G28">
-        <v>0.06890399999999999</v>
-      </c>
-      <c r="H28">
-        <v>0.206712</v>
-      </c>
-      <c r="I28">
-        <v>0.004547042328372864</v>
-      </c>
-      <c r="J28">
-        <v>0.004547042328372865</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M28">
-        <v>0.1288926666666667</v>
+        <v>0.02932566666666667</v>
       </c>
       <c r="N28">
-        <v>0.386678</v>
+        <v>0.087977</v>
       </c>
       <c r="O28">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="P28">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="Q28">
-        <v>0.008881220304000001</v>
+        <v>0.01549799899433333</v>
       </c>
       <c r="R28">
-        <v>0.07993098273599999</v>
+        <v>0.139481990949</v>
       </c>
       <c r="S28">
-        <v>1.283918432308655E-05</v>
+        <v>2.423788825510322E-05</v>
       </c>
       <c r="T28">
-        <v>1.283918432308655E-05</v>
+        <v>2.423788825510321E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.06890399999999999</v>
+        <v>0.528479</v>
       </c>
       <c r="H29">
-        <v>0.206712</v>
+        <v>1.585437</v>
       </c>
       <c r="I29">
-        <v>0.004547042328372864</v>
+        <v>0.03341672917842166</v>
       </c>
       <c r="J29">
-        <v>0.004547042328372865</v>
+        <v>0.03341672917842165</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>15.64397933333333</v>
+        <v>7.899262</v>
       </c>
       <c r="N29">
-        <v>46.931938</v>
+        <v>23.697786</v>
       </c>
       <c r="O29">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="P29">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="Q29">
-        <v>1.077932751984</v>
+        <v>4.174594082498</v>
       </c>
       <c r="R29">
-        <v>9.701394767856</v>
+        <v>37.57134674248201</v>
       </c>
       <c r="S29">
-        <v>0.001558319331903211</v>
+        <v>0.006528800583804285</v>
       </c>
       <c r="T29">
-        <v>0.001558319331903211</v>
+        <v>0.006528800583804283</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>27</v>
       </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.06890399999999999</v>
+        <v>0.528479</v>
       </c>
       <c r="H30">
-        <v>0.206712</v>
+        <v>1.585437</v>
       </c>
       <c r="I30">
-        <v>0.004547042328372864</v>
+        <v>0.03341672917842166</v>
       </c>
       <c r="J30">
-        <v>0.004547042328372865</v>
+        <v>0.03341672917842165</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.6170946666666667</v>
+        <v>0.3983913333333334</v>
       </c>
       <c r="N30">
-        <v>1.851284</v>
+        <v>1.195174</v>
       </c>
       <c r="O30">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677334</v>
       </c>
       <c r="P30">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677335</v>
       </c>
       <c r="Q30">
-        <v>0.042520290912</v>
+        <v>0.2105414534486667</v>
       </c>
       <c r="R30">
-        <v>0.382682618208</v>
+        <v>1.894873081038001</v>
       </c>
       <c r="S30">
-        <v>6.146968927733401E-05</v>
+        <v>0.0003292734903145679</v>
       </c>
       <c r="T30">
-        <v>6.146968927733401E-05</v>
+        <v>0.0003292734903145679</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.06890399999999999</v>
+        <v>0.528479</v>
       </c>
       <c r="H31">
-        <v>0.206712</v>
+        <v>1.585437</v>
       </c>
       <c r="I31">
-        <v>0.004547042328372864</v>
+        <v>0.03341672917842166</v>
       </c>
       <c r="J31">
-        <v>0.004547042328372865</v>
+        <v>0.03341672917842165</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.4473283333333333</v>
+        <v>0.403311</v>
       </c>
       <c r="N31">
-        <v>1.341985</v>
+        <v>1.209933</v>
       </c>
       <c r="O31">
-        <v>0.009799561315032582</v>
+        <v>0.009975232188034667</v>
       </c>
       <c r="P31">
-        <v>0.00979956131503258</v>
+        <v>0.009975232188034668</v>
       </c>
       <c r="Q31">
-        <v>0.03082271147999999</v>
+        <v>0.213141393969</v>
       </c>
       <c r="R31">
-        <v>0.2774044033199999</v>
+        <v>1.918272545721</v>
       </c>
       <c r="S31">
-        <v>4.455902009893839E-05</v>
+        <v>0.000333339632519429</v>
       </c>
       <c r="T31">
-        <v>4.455902009893839E-05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G32">
-        <v>0.04203033333333334</v>
-      </c>
-      <c r="H32">
-        <v>0.126091</v>
-      </c>
-      <c r="I32">
-        <v>0.002773622790292111</v>
-      </c>
-      <c r="J32">
-        <v>0.002773622790292112</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>1.958978666666666</v>
-      </c>
-      <c r="N32">
-        <v>5.876935999999999</v>
-      </c>
-      <c r="O32">
-        <v>0.04291508077699997</v>
-      </c>
-      <c r="P32">
-        <v>0.04291508077699997</v>
-      </c>
-      <c r="Q32">
-        <v>0.08233652635288888</v>
-      </c>
-      <c r="R32">
-        <v>0.7410287371759999</v>
-      </c>
-      <c r="S32">
-        <v>0.000119030246090314</v>
-      </c>
-      <c r="T32">
-        <v>0.000119030246090314</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G33">
-        <v>0.04203033333333334</v>
-      </c>
-      <c r="H33">
-        <v>0.126091</v>
-      </c>
-      <c r="I33">
-        <v>0.002773622790292111</v>
-      </c>
-      <c r="J33">
-        <v>0.002773622790292112</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>26.851518</v>
-      </c>
-      <c r="N33">
-        <v>80.554554</v>
-      </c>
-      <c r="O33">
-        <v>0.5882325742300422</v>
-      </c>
-      <c r="P33">
-        <v>0.5882325742300422</v>
-      </c>
-      <c r="Q33">
-        <v>1.128578252046</v>
-      </c>
-      <c r="R33">
-        <v>10.157204268414</v>
-      </c>
-      <c r="S33">
-        <v>0.001631535273876641</v>
-      </c>
-      <c r="T33">
-        <v>0.001631535273876641</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G34">
-        <v>0.04203033333333334</v>
-      </c>
-      <c r="H34">
-        <v>0.126091</v>
-      </c>
-      <c r="I34">
-        <v>0.002773622790292111</v>
-      </c>
-      <c r="J34">
-        <v>0.002773622790292112</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M34">
-        <v>0.1288926666666667</v>
-      </c>
-      <c r="N34">
-        <v>0.386678</v>
-      </c>
-      <c r="O34">
-        <v>0.002823634221078603</v>
-      </c>
-      <c r="P34">
-        <v>0.002823634221078603</v>
-      </c>
-      <c r="Q34">
-        <v>0.005417401744222223</v>
-      </c>
-      <c r="R34">
-        <v>0.04875661569800001</v>
-      </c>
-      <c r="S34">
-        <v>7.831696227032327E-06</v>
-      </c>
-      <c r="T34">
-        <v>7.831696227032327E-06</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G35">
-        <v>0.04203033333333334</v>
-      </c>
-      <c r="H35">
-        <v>0.126091</v>
-      </c>
-      <c r="I35">
-        <v>0.002773622790292111</v>
-      </c>
-      <c r="J35">
-        <v>0.002773622790292112</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>15.64397933333333</v>
-      </c>
-      <c r="N35">
-        <v>46.931938</v>
-      </c>
-      <c r="O35">
-        <v>0.3427105400316007</v>
-      </c>
-      <c r="P35">
-        <v>0.3427105400316007</v>
-      </c>
-      <c r="Q35">
-        <v>0.6575216660397779</v>
-      </c>
-      <c r="R35">
-        <v>5.917694994358</v>
-      </c>
-      <c r="S35">
-        <v>0.0009505497643049646</v>
-      </c>
-      <c r="T35">
-        <v>0.0009505497643049647</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G36">
-        <v>0.04203033333333334</v>
-      </c>
-      <c r="H36">
-        <v>0.126091</v>
-      </c>
-      <c r="I36">
-        <v>0.002773622790292111</v>
-      </c>
-      <c r="J36">
-        <v>0.002773622790292112</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>0.6170946666666667</v>
-      </c>
-      <c r="N36">
-        <v>1.851284</v>
-      </c>
-      <c r="O36">
-        <v>0.01351860942524602</v>
-      </c>
-      <c r="P36">
-        <v>0.01351860942524602</v>
-      </c>
-      <c r="Q36">
-        <v>0.02593669453822222</v>
-      </c>
-      <c r="R36">
-        <v>0.233430250844</v>
-      </c>
-      <c r="S36">
-        <v>3.74955231949201E-05</v>
-      </c>
-      <c r="T36">
-        <v>3.749552319492011E-05</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G37">
-        <v>0.04203033333333334</v>
-      </c>
-      <c r="H37">
-        <v>0.126091</v>
-      </c>
-      <c r="I37">
-        <v>0.002773622790292111</v>
-      </c>
-      <c r="J37">
-        <v>0.002773622790292112</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>0.4473283333333333</v>
-      </c>
-      <c r="N37">
-        <v>1.341985</v>
-      </c>
-      <c r="O37">
-        <v>0.009799561315032582</v>
-      </c>
-      <c r="P37">
-        <v>0.00979956131503258</v>
-      </c>
-      <c r="Q37">
-        <v>0.01880135895944444</v>
-      </c>
-      <c r="R37">
-        <v>0.169212230635</v>
-      </c>
-      <c r="S37">
-        <v>2.71802865982393E-05</v>
-      </c>
-      <c r="T37">
-        <v>2.71802865982393E-05</v>
+        <v>0.000333339632519429</v>
       </c>
     </row>
   </sheetData>
